--- a/Lacex_summary_RTSC_3comp.xlsx
+++ b/Lacex_summary_RTSC_3comp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFD1DF4-A9EF-4CA2-9970-FC7E8BFDDF6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3586A528-753C-43D5-8C79-25B39D700342}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F3FAA3D-CFB0-4F87-8683-05B8A59F7603}"/>
   </bookViews>
@@ -28,6 +28,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>R1P</t>
+  </si>
+  <si>
+    <t>kPL</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>R1Lin</t>
+  </si>
+  <si>
+    <t>kLP</t>
+  </si>
+  <si>
+    <t>kMCT4</t>
+  </si>
+  <si>
+    <t>R1Lex</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>kMCT1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,14 +410,1305 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB73D763-1888-4749-999B-52DDBBAD6D2D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1.98829784474812E-2</v>
+      </c>
+      <c r="B1">
+        <v>2.3712828411443071E-3</v>
+      </c>
+      <c r="C1">
+        <v>5.0314362273618926E-3</v>
+      </c>
+      <c r="D1">
+        <v>3.8833973567878224E-2</v>
+      </c>
+      <c r="E1">
+        <v>2.375451647291212E-14</v>
+      </c>
+      <c r="F1">
+        <v>0.2447669334939524</v>
+      </c>
+      <c r="G1">
+        <v>2.8011105293533442E-2</v>
+      </c>
+      <c r="H1">
+        <v>0.13644310107520502</v>
+      </c>
+      <c r="I1">
+        <v>0.14399737242961952</v>
+      </c>
+      <c r="J1">
+        <v>5.3558921165999589</v>
+      </c>
+      <c r="K1">
+        <v>13.392570525428599</v>
+      </c>
+      <c r="L1">
+        <v>178899034.97044602</v>
+      </c>
+      <c r="M1">
+        <v>0.99673564033593043</v>
+      </c>
+      <c r="N1">
+        <v>0.99600810550878227</v>
+      </c>
+      <c r="O1">
+        <v>0.97989964929212636</v>
+      </c>
+      <c r="P1">
+        <v>8.0939499318710514E-2</v>
+      </c>
+      <c r="Q1">
+        <v>0.10517002891953046</v>
+      </c>
+      <c r="R1">
+        <v>0.21849387979032178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1.98829784474812E-2</v>
+      </c>
+      <c r="B28">
+        <v>2.3712828411443071E-3</v>
+      </c>
+      <c r="C28">
+        <v>5.0314362273618926E-3</v>
+      </c>
+      <c r="D28">
+        <v>3.8833973567878224E-2</v>
+      </c>
+      <c r="E28">
+        <v>2.375451647291212E-14</v>
+      </c>
+      <c r="F28">
+        <v>0.2447669334939524</v>
+      </c>
+      <c r="G28">
+        <v>2.8011105293533442E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.13644310107520502</v>
+      </c>
+      <c r="I28">
+        <v>0.14399737242961952</v>
+      </c>
+    </row>
+  </sheetData>
   <conditionalFormatting sqref="P1:P11">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -435,5 +1758,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>